--- a/2011_dengue_extracted.xlsx
+++ b/2011_dengue_extracted.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11388"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -723,248 +723,248 @@
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2">
-        <v>690</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>389</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>468</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>1068</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2">
-        <v>1436</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
-        <v>1539</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2">
-        <v>1238</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2">
-        <v>873</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2">
-        <v>780</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>1078</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>594</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" s="2">
         <v>58</v>
       </c>
-      <c r="F3" s="2">
-        <v>156</v>
-      </c>
-      <c r="G3" s="2">
-        <v>222</v>
-      </c>
-      <c r="H3" s="2">
-        <v>229</v>
-      </c>
       <c r="I3" s="2">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>31</v>
+        <v>690</v>
       </c>
       <c r="C4" s="2">
+        <v>421</v>
+      </c>
+      <c r="D4" s="2">
+        <v>389</v>
+      </c>
+      <c r="E4" s="2">
+        <v>468</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1068</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1436</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1539</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1238</v>
+      </c>
+      <c r="J4" s="2">
+        <v>873</v>
+      </c>
+      <c r="K4" s="2">
+        <v>780</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1078</v>
+      </c>
+      <c r="M4" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2">
-        <v>91</v>
-      </c>
-      <c r="G4" s="2">
-        <v>123</v>
-      </c>
-      <c r="H4" s="2">
-        <v>146</v>
-      </c>
-      <c r="I4" s="2">
-        <v>92</v>
-      </c>
-      <c r="J4" s="2">
-        <v>80</v>
-      </c>
-      <c r="K4" s="2">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>18</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2">
-        <v>165</v>
-      </c>
-      <c r="G5" s="2">
-        <v>137</v>
-      </c>
-      <c r="H5" s="2">
-        <v>136</v>
-      </c>
-      <c r="I5" s="2">
-        <v>81</v>
-      </c>
-      <c r="J5" s="2">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="H5" s="6">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6">
         <v>8</v>
+      </c>
+      <c r="J5" s="6">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2">
+        <v>163</v>
+      </c>
+      <c r="G6" s="2">
+        <v>439</v>
+      </c>
+      <c r="H6" s="2">
+        <v>373</v>
+      </c>
+      <c r="I6" s="2">
+        <v>359</v>
+      </c>
+      <c r="J6" s="2">
+        <v>238</v>
+      </c>
+      <c r="K6" s="2">
         <v>32</v>
       </c>
-      <c r="D6" s="2">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2">
-        <v>61</v>
-      </c>
-      <c r="F6" s="2">
-        <v>116</v>
-      </c>
-      <c r="G6" s="2">
-        <v>125</v>
-      </c>
-      <c r="H6" s="2">
-        <v>137</v>
-      </c>
-      <c r="I6" s="2">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2">
-        <v>28</v>
-      </c>
       <c r="L6" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="G7" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="H7" s="2">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="I7" s="2">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="J7" s="2">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="K7" s="2">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="L7" s="2">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="M7" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1010,2875 +1010,2878 @@
     </row>
     <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="I9" s="2">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="J9" s="2">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="K9" s="2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="L9" s="2">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="H10" s="2">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="I10" s="2">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2">
+        <v>142</v>
+      </c>
+      <c r="H11" s="2">
+        <v>93</v>
+      </c>
+      <c r="I11" s="2">
+        <v>96</v>
+      </c>
+      <c r="J11" s="2">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2">
-        <v>170</v>
-      </c>
-      <c r="G11" s="2">
-        <v>338</v>
-      </c>
-      <c r="H11" s="2">
-        <v>340</v>
-      </c>
-      <c r="I11" s="2">
-        <v>285</v>
-      </c>
-      <c r="J11" s="2">
-        <v>221</v>
-      </c>
-      <c r="K11" s="2">
-        <v>169</v>
-      </c>
       <c r="L11" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
       <c r="E12" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M12" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="F13" s="2">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="G13" s="2">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="H13" s="2">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="I13" s="2">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="J13" s="2">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="K13" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="L13" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="M13" s="2">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>24</v>
       </c>
       <c r="E14" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="H14" s="2">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="K14" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L14" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M14" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
-        <v>139</v>
-      </c>
-      <c r="C15" s="2">
-        <v>123</v>
-      </c>
-      <c r="D15" s="2">
-        <v>124</v>
-      </c>
-      <c r="E15" s="2">
-        <v>161</v>
-      </c>
-      <c r="F15" s="2">
-        <v>265</v>
-      </c>
       <c r="G15" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="H15" s="2">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="K15" s="2">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="M15" s="2">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G16" s="2">
-        <v>153</v>
+        <v>323</v>
       </c>
       <c r="H16" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="I16" s="2">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="J16" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="K16" s="2">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L16" s="2">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="M16" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="G17" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H17" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="J17" s="2">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G18" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="H18" s="2">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="I18" s="2">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="J18" s="2">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="K18" s="2">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="L18" s="2">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="M18" s="2">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2">
+        <v>85</v>
+      </c>
+      <c r="I19" s="2">
+        <v>64</v>
+      </c>
+      <c r="J19" s="2">
+        <v>62</v>
+      </c>
+      <c r="K19" s="2">
+        <v>46</v>
+      </c>
+      <c r="L19" s="2">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2">
-        <v>61</v>
-      </c>
-      <c r="F19" s="2">
-        <v>128</v>
-      </c>
-      <c r="G19" s="2">
-        <v>111</v>
-      </c>
-      <c r="H19" s="2">
-        <v>182</v>
-      </c>
-      <c r="I19" s="2">
-        <v>210</v>
-      </c>
-      <c r="J19" s="2">
-        <v>116</v>
-      </c>
-      <c r="K19" s="2">
-        <v>62</v>
-      </c>
-      <c r="L19" s="2">
-        <v>42</v>
-      </c>
       <c r="M19" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2">
-        <v>383</v>
+        <v>48</v>
       </c>
       <c r="H20" s="2">
-        <v>352</v>
+        <v>47</v>
       </c>
       <c r="I20" s="2">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="K20" s="2">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="L20" s="2">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="H21" s="2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="J21" s="2">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K21" s="2">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="L21" s="2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M21" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2">
         <v>45</v>
       </c>
-      <c r="F22" s="2">
-        <v>120</v>
-      </c>
       <c r="G22" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="I22" s="2">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="K22" s="2">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="L22" s="2">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2">
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="H23" s="2">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="I23" s="2">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="J23" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="K23" s="2">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="L23" s="2">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="M23" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="G24" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="I24" s="2">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="K24" s="2">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="M24" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="H25" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="I25" s="2">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="J25" s="2">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="K25" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="L25" s="2">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="M25" s="2">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2">
+        <v>32</v>
+      </c>
+      <c r="H26" s="2">
         <v>37</v>
       </c>
-      <c r="B26" s="2">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2">
-        <v>57</v>
-      </c>
-      <c r="E26" s="2">
-        <v>81</v>
-      </c>
-      <c r="F26" s="2">
-        <v>147</v>
-      </c>
-      <c r="G26" s="2">
-        <v>198</v>
-      </c>
-      <c r="H26" s="2">
-        <v>233</v>
-      </c>
       <c r="I26" s="2">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="J26" s="2">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="K26" s="2">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2">
+        <v>48</v>
+      </c>
+      <c r="G27" s="2">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2">
+        <v>51</v>
+      </c>
+      <c r="J27" s="2">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2">
+        <v>18</v>
+      </c>
+      <c r="L27" s="2">
         <v>16</v>
       </c>
-      <c r="E27" s="2">
-        <v>40</v>
-      </c>
-      <c r="F27" s="2">
-        <v>93</v>
-      </c>
-      <c r="G27" s="2">
-        <v>87</v>
-      </c>
-      <c r="H27" s="2">
-        <v>65</v>
-      </c>
-      <c r="I27" s="2">
-        <v>38</v>
-      </c>
-      <c r="J27" s="2">
-        <v>42</v>
-      </c>
-      <c r="K27" s="2">
-        <v>23</v>
-      </c>
-      <c r="L27" s="2">
-        <v>15</v>
-      </c>
       <c r="M27" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="G28" s="2">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="H28" s="2">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="J28" s="2">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="K28" s="2">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="L28" s="2">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="M28" s="2">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>30</v>
+      </c>
+      <c r="G29" s="2">
+        <v>51</v>
+      </c>
+      <c r="H29" s="2">
         <v>58</v>
       </c>
-      <c r="F29" s="2">
-        <v>81</v>
-      </c>
-      <c r="G29" s="2">
-        <v>70</v>
-      </c>
-      <c r="H29" s="2">
-        <v>52</v>
-      </c>
       <c r="I29" s="2">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="J29" s="2">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="K29" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="L29" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="M29" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F30" s="2">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="G30" s="2">
-        <v>28</v>
+        <v>413</v>
       </c>
       <c r="H30" s="2">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="I30" s="2">
-        <v>43</v>
+        <v>519</v>
       </c>
       <c r="J30" s="2">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="K30" s="2">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="L30" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="M30" s="2">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="F31" s="2">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="G31" s="2">
-        <v>31</v>
+        <v>635</v>
       </c>
       <c r="H31" s="2">
-        <v>19</v>
+        <v>555</v>
       </c>
       <c r="I31" s="2">
-        <v>31</v>
+        <v>372</v>
       </c>
       <c r="J31" s="2">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="K31" s="2">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="L31" s="2">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="M31" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G32" s="2">
         <v>70</v>
       </c>
       <c r="H32" s="2">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I32" s="2">
+        <v>67</v>
+      </c>
+      <c r="J32" s="2">
         <v>64</v>
       </c>
-      <c r="J32" s="2">
-        <v>62</v>
-      </c>
       <c r="K32" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L32" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M32" s="2">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H33" s="2">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K33" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2">
+        <v>29</v>
+      </c>
+      <c r="H34" s="2">
+        <v>27</v>
+      </c>
+      <c r="I34" s="2">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2">
+        <v>27</v>
+      </c>
+      <c r="K34" s="2">
         <v>17</v>
       </c>
-      <c r="D34" s="2">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2">
-        <v>7</v>
-      </c>
-      <c r="F34" s="2">
-        <v>23</v>
-      </c>
-      <c r="G34" s="2">
-        <v>17</v>
-      </c>
-      <c r="H34" s="2">
-        <v>26</v>
-      </c>
-      <c r="I34" s="2">
-        <v>28</v>
-      </c>
-      <c r="J34" s="2">
-        <v>14</v>
-      </c>
-      <c r="K34" s="2">
-        <v>21</v>
-      </c>
       <c r="L34" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M34" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H35" s="2">
+        <v>23</v>
+      </c>
+      <c r="I35" s="2">
+        <v>13</v>
+      </c>
+      <c r="J35" s="2">
         <v>3</v>
       </c>
-      <c r="I35" s="2">
-        <v>8</v>
-      </c>
-      <c r="J35" s="2">
-        <v>5</v>
-      </c>
       <c r="K35" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" s="2">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J36" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K36" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L36" s="2">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="M36" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
       </c>
       <c r="C37" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D37" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E37" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="G37" s="2">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="H37" s="2">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="I37" s="2">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="J37" s="2">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="K37" s="2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="L37" s="2">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="M37" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E38" s="2">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G38" s="2">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="H38" s="2">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="I38" s="2">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="J38" s="2">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="K38" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L38" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M38" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="G39" s="2">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="H39" s="2">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I39" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J39" s="2">
+        <v>55</v>
+      </c>
+      <c r="K39" s="2">
         <v>16</v>
       </c>
-      <c r="K39" s="2">
-        <v>31</v>
-      </c>
       <c r="L39" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M39" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="H40" s="2">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J40" s="2">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="K40" s="2">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="L40" s="2">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="M40" s="2">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E41" s="4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F41" s="4">
+        <v>32</v>
+      </c>
+      <c r="G41" s="4">
+        <v>40</v>
+      </c>
+      <c r="H41" s="4">
+        <v>57</v>
+      </c>
+      <c r="I41" s="4">
+        <v>55</v>
+      </c>
+      <c r="J41" s="4">
+        <v>26</v>
+      </c>
+      <c r="K41" s="4">
         <v>16</v>
       </c>
-      <c r="G41" s="4">
-        <v>10</v>
-      </c>
-      <c r="H41" s="4">
-        <v>9</v>
-      </c>
-      <c r="I41" s="4">
-        <v>13</v>
-      </c>
-      <c r="J41" s="4">
-        <v>4</v>
-      </c>
-      <c r="K41" s="4">
-        <v>9</v>
-      </c>
       <c r="L41" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M41" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>3</v>
-      </c>
-      <c r="G42" s="6">
-        <v>14</v>
-      </c>
-      <c r="H42" s="6">
-        <v>12</v>
-      </c>
-      <c r="I42" s="6">
-        <v>8</v>
-      </c>
-      <c r="J42" s="6">
-        <v>10</v>
-      </c>
-      <c r="K42" s="6">
-        <v>3</v>
-      </c>
-      <c r="L42" s="6">
-        <v>2</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0</v>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2">
+        <v>24</v>
+      </c>
+      <c r="F42" s="2">
+        <v>34</v>
+      </c>
+      <c r="G42" s="2">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" s="2">
+        <v>43</v>
+      </c>
+      <c r="J42" s="2">
+        <v>29</v>
+      </c>
+      <c r="K42" s="2">
+        <v>54</v>
+      </c>
+      <c r="L42" s="2">
+        <v>44</v>
+      </c>
+      <c r="M42" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>23</v>
+      </c>
+      <c r="G43" s="2">
+        <v>60</v>
+      </c>
+      <c r="H43" s="2">
+        <v>32</v>
+      </c>
+      <c r="I43" s="2">
+        <v>14</v>
+      </c>
+      <c r="J43" s="2">
+        <v>5</v>
+      </c>
+      <c r="K43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="2">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2">
-        <v>45</v>
-      </c>
-      <c r="G43" s="2">
-        <v>68</v>
-      </c>
-      <c r="H43" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" s="2">
-        <v>26</v>
-      </c>
-      <c r="J43" s="2">
-        <v>36</v>
-      </c>
-      <c r="K43" s="2">
-        <v>16</v>
-      </c>
       <c r="L43" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E44" s="2">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G44" s="2">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="H44" s="2">
+        <v>240</v>
+      </c>
+      <c r="I44" s="2">
+        <v>173</v>
+      </c>
+      <c r="J44" s="2">
+        <v>75</v>
+      </c>
+      <c r="K44" s="2">
+        <v>42</v>
+      </c>
+      <c r="L44" s="2">
         <v>23</v>
       </c>
-      <c r="I44" s="2">
-        <v>13</v>
-      </c>
-      <c r="J44" s="2">
-        <v>3</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="G45" s="2">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="H45" s="2">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="I45" s="2">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="J45" s="2">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="K45" s="2">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="L45" s="2">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="G46" s="2">
-        <v>31</v>
+        <v>457</v>
       </c>
       <c r="H46" s="2">
-        <v>31</v>
+        <v>449</v>
       </c>
       <c r="I46" s="2">
+        <v>296</v>
+      </c>
+      <c r="J46" s="2">
+        <v>122</v>
+      </c>
+      <c r="K46" s="2">
+        <v>44</v>
+      </c>
+      <c r="L46" s="2">
         <v>32</v>
       </c>
-      <c r="J46" s="2">
-        <v>20</v>
-      </c>
-      <c r="K46" s="2">
-        <v>8</v>
-      </c>
-      <c r="L46" s="2">
-        <v>6</v>
-      </c>
       <c r="M46" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E47" s="2">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="G47" s="2">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="H47" s="2">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I47" s="2">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="J47" s="2">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="K47" s="2">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
         <v>30</v>
       </c>
-      <c r="G48" s="2">
-        <v>51</v>
-      </c>
       <c r="H48" s="2">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I48" s="2">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J48" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K48" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E49" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F49" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G49" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H49" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I49" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J49" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K49" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M49" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E50" s="2">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="H50" s="2">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="I50" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="J50" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="K50" s="2">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L50" s="2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="M50" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B51" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C51" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="G51" s="2">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="H51" s="2">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="I51" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="J51" s="2">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="K51" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="L51" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M51" s="2">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2">
+        <v>6</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
         <v>5</v>
       </c>
-      <c r="D52" s="2">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2">
-        <v>49</v>
-      </c>
-      <c r="G52" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" s="2">
-        <v>145</v>
-      </c>
-      <c r="I52" s="2">
-        <v>111</v>
-      </c>
-      <c r="J52" s="2">
-        <v>105</v>
-      </c>
       <c r="K52" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="L52" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M52" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B53" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="G53" s="2">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="H53" s="2">
-        <v>384</v>
+        <v>193</v>
       </c>
       <c r="I53" s="2">
-        <v>423</v>
+        <v>319</v>
       </c>
       <c r="J53" s="2">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="K53" s="2">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="L53" s="2">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="M53" s="2">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B54" s="2">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E54" s="2">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="G54" s="2">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="H54" s="2">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="I54" s="2">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="J54" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="K54" s="2">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="L54" s="2">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="M54" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2">
+        <v>23</v>
+      </c>
+      <c r="E55" s="2">
+        <v>35</v>
+      </c>
+      <c r="F55" s="2">
+        <v>163</v>
+      </c>
+      <c r="G55" s="2">
+        <v>379</v>
+      </c>
+      <c r="H55" s="2">
+        <v>384</v>
+      </c>
+      <c r="I55" s="2">
+        <v>423</v>
+      </c>
+      <c r="J55" s="2">
+        <v>176</v>
+      </c>
+      <c r="K55" s="2">
         <v>66</v>
       </c>
-      <c r="B55" s="2">
-        <v>11</v>
-      </c>
-      <c r="C55" s="2">
-        <v>20</v>
-      </c>
-      <c r="D55" s="2">
-        <v>39</v>
-      </c>
-      <c r="E55" s="2">
-        <v>87</v>
-      </c>
-      <c r="F55" s="2">
-        <v>321</v>
-      </c>
-      <c r="G55" s="2">
-        <v>405</v>
-      </c>
-      <c r="H55" s="2">
-        <v>461</v>
-      </c>
-      <c r="I55" s="2">
-        <v>377</v>
-      </c>
-      <c r="J55" s="2">
-        <v>182</v>
-      </c>
-      <c r="K55" s="2">
-        <v>77</v>
-      </c>
       <c r="L55" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M55" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2">
+        <v>64</v>
+      </c>
+      <c r="F56" s="2">
+        <v>126</v>
+      </c>
+      <c r="G56" s="2">
+        <v>157</v>
+      </c>
+      <c r="H56" s="2">
+        <v>176</v>
+      </c>
+      <c r="I56" s="2">
+        <v>96</v>
+      </c>
+      <c r="J56" s="2">
+        <v>80</v>
+      </c>
+      <c r="K56" s="2">
         <v>29</v>
       </c>
-      <c r="F56" s="2">
-        <v>137</v>
-      </c>
-      <c r="G56" s="2">
-        <v>288</v>
-      </c>
-      <c r="H56" s="2">
-        <v>208</v>
-      </c>
-      <c r="I56" s="2">
-        <v>190</v>
-      </c>
-      <c r="J56" s="2">
-        <v>112</v>
-      </c>
-      <c r="K56" s="2">
-        <v>44</v>
-      </c>
       <c r="L56" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M56" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2">
+        <v>29</v>
+      </c>
+      <c r="H57" s="2">
         <v>18</v>
       </c>
-      <c r="G57" s="2">
-        <v>35</v>
-      </c>
-      <c r="H57" s="2">
-        <v>40</v>
-      </c>
       <c r="I57" s="2">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J57" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K57" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
         <v>2</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2">
+        <v>139</v>
+      </c>
+      <c r="C58" s="2">
+        <v>123</v>
+      </c>
+      <c r="D58" s="2">
+        <v>124</v>
+      </c>
+      <c r="E58" s="2">
+        <v>161</v>
+      </c>
+      <c r="F58" s="2">
+        <v>265</v>
+      </c>
+      <c r="G58" s="2">
+        <v>287</v>
+      </c>
+      <c r="H58" s="2">
+        <v>229</v>
+      </c>
+      <c r="I58" s="2">
+        <v>190</v>
+      </c>
+      <c r="J58" s="2">
+        <v>111</v>
+      </c>
+      <c r="K58" s="2">
+        <v>114</v>
+      </c>
+      <c r="L58" s="2">
+        <v>78</v>
+      </c>
+      <c r="M58" s="2">
         <v>49</v>
-      </c>
-      <c r="C58" s="2">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2">
-        <v>42</v>
-      </c>
-      <c r="E58" s="2">
-        <v>54</v>
-      </c>
-      <c r="F58" s="2">
-        <v>163</v>
-      </c>
-      <c r="G58" s="2">
-        <v>439</v>
-      </c>
-      <c r="H58" s="2">
-        <v>373</v>
-      </c>
-      <c r="I58" s="2">
-        <v>359</v>
-      </c>
-      <c r="J58" s="2">
-        <v>238</v>
-      </c>
-      <c r="K58" s="2">
-        <v>32</v>
-      </c>
-      <c r="L58" s="2">
-        <v>54</v>
-      </c>
-      <c r="M58" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D59" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E59" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="G59" s="2">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="H59" s="2">
+        <v>153</v>
+      </c>
+      <c r="I59" s="2">
+        <v>152</v>
+      </c>
+      <c r="J59" s="2">
         <v>150</v>
       </c>
-      <c r="I59" s="2">
-        <v>150</v>
-      </c>
-      <c r="J59" s="2">
-        <v>99</v>
-      </c>
       <c r="K59" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="L59" s="2">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="M59" s="2">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B60" s="2">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2">
+        <v>57</v>
+      </c>
+      <c r="G60" s="2">
+        <v>65</v>
+      </c>
+      <c r="H60" s="2">
+        <v>85</v>
+      </c>
+      <c r="I60" s="2">
+        <v>63</v>
+      </c>
+      <c r="J60" s="2">
         <v>44</v>
       </c>
-      <c r="C60" s="2">
-        <v>35</v>
-      </c>
-      <c r="D60" s="2">
-        <v>56</v>
-      </c>
-      <c r="E60" s="2">
-        <v>79</v>
-      </c>
-      <c r="F60" s="2">
-        <v>215</v>
-      </c>
-      <c r="G60" s="2">
-        <v>413</v>
-      </c>
-      <c r="H60" s="2">
-        <v>470</v>
-      </c>
-      <c r="I60" s="2">
-        <v>519</v>
-      </c>
-      <c r="J60" s="2">
-        <v>317</v>
-      </c>
       <c r="K60" s="2">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="L60" s="2">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="M60" s="2">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="G61" s="2">
-        <v>437</v>
+        <v>125</v>
       </c>
       <c r="H61" s="2">
-        <v>497</v>
+        <v>137</v>
       </c>
       <c r="I61" s="2">
-        <v>380</v>
+        <v>62</v>
       </c>
       <c r="J61" s="2">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="K61" s="2">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="L61" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M61" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2">
+        <v>26</v>
+      </c>
+      <c r="C62" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2">
+        <v>30</v>
+      </c>
+      <c r="F62" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" s="2">
+        <v>52</v>
+      </c>
+      <c r="H62" s="2">
         <v>29</v>
       </c>
-      <c r="C62" s="2">
-        <v>7</v>
-      </c>
-      <c r="D62" s="2">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2">
-        <v>87</v>
-      </c>
-      <c r="G62" s="2">
-        <v>142</v>
-      </c>
-      <c r="H62" s="2">
-        <v>93</v>
-      </c>
       <c r="I62" s="2">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="J62" s="2">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K62" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L62" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M62" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
         <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E63" s="2">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2">
-        <v>26</v>
+        <v>321</v>
       </c>
       <c r="G63" s="2">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="H63" s="2">
-        <v>47</v>
+        <v>461</v>
       </c>
       <c r="I63" s="2">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="J63" s="2">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="K63" s="2">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="L63" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="M63" s="2">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" s="2">
         <v>4</v>
       </c>
       <c r="E64" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64" s="2">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2">
+        <v>10</v>
+      </c>
+      <c r="H64" s="2">
+        <v>11</v>
+      </c>
+      <c r="I64" s="2">
         <v>12</v>
       </c>
-      <c r="G64" s="2">
-        <v>28</v>
-      </c>
-      <c r="H64" s="2">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2">
-        <v>13</v>
-      </c>
       <c r="J64" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2">
+        <v>195</v>
+      </c>
+      <c r="C65" s="2">
+        <v>126</v>
+      </c>
+      <c r="D65" s="2">
+        <v>94</v>
+      </c>
+      <c r="E65" s="2">
+        <v>63</v>
+      </c>
+      <c r="F65" s="2">
+        <v>70</v>
+      </c>
+      <c r="G65" s="2">
+        <v>84</v>
+      </c>
+      <c r="H65" s="2">
+        <v>63</v>
+      </c>
+      <c r="I65" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" s="2">
+        <v>68</v>
+      </c>
+      <c r="K65" s="2">
+        <v>84</v>
+      </c>
+      <c r="L65" s="2">
         <v>76</v>
       </c>
-      <c r="B65" s="2">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2">
-        <v>8</v>
-      </c>
-      <c r="F65" s="2">
-        <v>55</v>
-      </c>
-      <c r="G65" s="2">
-        <v>42</v>
-      </c>
-      <c r="H65" s="2">
-        <v>36</v>
-      </c>
-      <c r="I65" s="2">
-        <v>10</v>
-      </c>
-      <c r="J65" s="2">
-        <v>4</v>
-      </c>
-      <c r="K65" s="2">
-        <v>4</v>
-      </c>
-      <c r="L65" s="2">
-        <v>4</v>
-      </c>
       <c r="M65" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E66" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="G66" s="2">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="H66" s="2">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="I66" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J66" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="K66" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L66" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M66" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="B67" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="G67" s="2">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="H67" s="2">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="I67" s="2">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="J67" s="2">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="K67" s="2">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="L67" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M67" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B68" s="2">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D68" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E68" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F68" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G68" s="2">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H68" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I68" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J68" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K68" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L68" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M68" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E69" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F69" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G69" s="2">
-        <v>30</v>
+        <v>437</v>
       </c>
       <c r="H69" s="2">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="I69" s="2">
-        <v>15</v>
+        <v>380</v>
       </c>
       <c r="J69" s="2">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="K69" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="L69" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M69" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
+        <v>34</v>
+      </c>
+      <c r="C70" s="2">
+        <v>36</v>
+      </c>
+      <c r="D70" s="2">
+        <v>47</v>
+      </c>
+      <c r="E70" s="2">
         <v>24</v>
       </c>
-      <c r="C70" s="2">
-        <v>37</v>
-      </c>
-      <c r="D70" s="2">
-        <v>35</v>
-      </c>
-      <c r="E70" s="2">
-        <v>80</v>
-      </c>
       <c r="F70" s="2">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="G70" s="2">
-        <v>314</v>
+        <v>148</v>
       </c>
       <c r="H70" s="2">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="I70" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="J70" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="K70" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L70" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M70" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B71" s="2">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2">
+        <v>14</v>
+      </c>
+      <c r="F71" s="2">
+        <v>25</v>
+      </c>
+      <c r="G71" s="2">
+        <v>43</v>
+      </c>
+      <c r="H71" s="2">
+        <v>22</v>
+      </c>
+      <c r="I71" s="2">
         <v>27</v>
       </c>
-      <c r="C71" s="2">
-        <v>31</v>
-      </c>
-      <c r="D71" s="2">
-        <v>30</v>
-      </c>
-      <c r="E71" s="2">
-        <v>68</v>
-      </c>
-      <c r="F71" s="2">
-        <v>176</v>
-      </c>
-      <c r="G71" s="2">
-        <v>300</v>
-      </c>
-      <c r="H71" s="2">
-        <v>293</v>
-      </c>
-      <c r="I71" s="2">
-        <v>147</v>
-      </c>
       <c r="J71" s="2">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="K71" s="2">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L71" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M71" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B72" s="2">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2">
         <v>16</v>
       </c>
-      <c r="C72" s="2">
-        <v>13</v>
-      </c>
-      <c r="D72" s="2">
-        <v>22</v>
-      </c>
       <c r="E72" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G72" s="2">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="H72" s="2">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="I72" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J72" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K72" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L72" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M72" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B73" s="2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C73" s="2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E73" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F73" s="2">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="G73" s="2">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="H73" s="2">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="I73" s="2">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="J73" s="2">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="K73" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L73" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M73" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B74" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
+        <v>14</v>
+      </c>
+      <c r="G74" s="2">
+        <v>31</v>
+      </c>
+      <c r="H74" s="2">
+        <v>31</v>
+      </c>
+      <c r="I74" s="2">
+        <v>32</v>
+      </c>
+      <c r="J74" s="2">
+        <v>20</v>
+      </c>
+      <c r="K74" s="2">
+        <v>8</v>
+      </c>
+      <c r="L74" s="2">
         <v>6</v>
       </c>
-      <c r="F74" s="2">
-        <v>46</v>
-      </c>
-      <c r="G74" s="2">
-        <v>114</v>
-      </c>
-      <c r="H74" s="2">
-        <v>60</v>
-      </c>
-      <c r="I74" s="2">
-        <v>52</v>
-      </c>
-      <c r="J74" s="2">
-        <v>23</v>
-      </c>
-      <c r="K74" s="2">
-        <v>10</v>
-      </c>
-      <c r="L74" s="2">
-        <v>19</v>
-      </c>
       <c r="M74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>28</v>
+      </c>
+      <c r="F75" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" s="2">
+        <v>28</v>
+      </c>
+      <c r="H75" s="2">
+        <v>33</v>
+      </c>
+      <c r="I75" s="2">
+        <v>21</v>
+      </c>
+      <c r="J75" s="2">
+        <v>18</v>
+      </c>
+      <c r="K75" s="2">
+        <v>12</v>
+      </c>
+      <c r="L75" s="2">
         <v>15</v>
       </c>
-      <c r="C75" s="2">
-        <v>26</v>
-      </c>
-      <c r="D75" s="2">
-        <v>23</v>
-      </c>
-      <c r="E75" s="2">
-        <v>48</v>
-      </c>
-      <c r="F75" s="2">
-        <v>141</v>
-      </c>
-      <c r="G75" s="2">
-        <v>323</v>
-      </c>
-      <c r="H75" s="2">
-        <v>279</v>
-      </c>
-      <c r="I75" s="2">
-        <v>214</v>
-      </c>
-      <c r="J75" s="2">
-        <v>108</v>
-      </c>
-      <c r="K75" s="2">
-        <v>60</v>
-      </c>
-      <c r="L75" s="2">
-        <v>58</v>
-      </c>
       <c r="M75" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>6</v>
+      </c>
+      <c r="F76" s="2">
+        <v>46</v>
+      </c>
+      <c r="G76" s="2">
+        <v>114</v>
+      </c>
+      <c r="H76" s="2">
+        <v>60</v>
+      </c>
+      <c r="I76" s="2">
         <v>52</v>
       </c>
-      <c r="C76" s="2">
-        <v>67</v>
-      </c>
-      <c r="D76" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2">
-        <v>147</v>
-      </c>
-      <c r="F76" s="2">
-        <v>393</v>
-      </c>
-      <c r="G76" s="2">
-        <v>635</v>
-      </c>
-      <c r="H76" s="2">
-        <v>555</v>
-      </c>
-      <c r="I76" s="2">
-        <v>372</v>
-      </c>
       <c r="J76" s="2">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="K76" s="2">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="L76" s="2">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M76" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B77" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2">
-        <v>457</v>
+        <v>10</v>
       </c>
       <c r="H77" s="2">
-        <v>449</v>
+        <v>9</v>
       </c>
       <c r="I77" s="2">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="J77" s="2">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="K77" s="2">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="L77" s="2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M77" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B78" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C78" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>5</v>
+      </c>
+      <c r="F78" s="4">
+        <v>18</v>
+      </c>
+      <c r="G78" s="4">
+        <v>35</v>
+      </c>
+      <c r="H78" s="4">
+        <v>40</v>
+      </c>
+      <c r="I78" s="4">
+        <v>46</v>
+      </c>
+      <c r="J78" s="4">
+        <v>16</v>
+      </c>
+      <c r="K78" s="4">
+        <v>10</v>
+      </c>
+      <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="E78" s="4">
-        <v>28</v>
-      </c>
-      <c r="F78" s="4">
-        <v>14</v>
-      </c>
-      <c r="G78" s="4">
-        <v>28</v>
-      </c>
-      <c r="H78" s="4">
-        <v>33</v>
-      </c>
-      <c r="I78" s="4">
-        <v>21</v>
-      </c>
-      <c r="J78" s="4">
-        <v>18</v>
-      </c>
-      <c r="K78" s="4">
-        <v>12</v>
-      </c>
-      <c r="L78" s="4">
-        <v>15</v>
-      </c>
       <c r="M78" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M78">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2011_dengue_extracted.xlsx
+++ b/2011_dengue_extracted.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDF4DD-5D30-1149-9516-AB7D32B2FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jan</t>
   </si>
   <si>
@@ -294,12 +292,15 @@
   </si>
   <si>
     <t>Uthai Thani</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,14 +659,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD78"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28"/>
     <col min="2" max="2" width="10"/>
@@ -680,50 +679,50 @@
     <col min="13" max="13" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -762,9 +761,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -803,9 +802,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>690</v>
@@ -844,9 +843,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -885,9 +884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>49</v>
@@ -926,9 +925,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>49</v>
@@ -967,9 +966,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>11</v>
@@ -1008,9 +1007,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -1049,9 +1048,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>28</v>
@@ -1090,9 +1089,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2">
         <v>29</v>
@@ -1131,9 +1130,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2">
         <v>21</v>
@@ -1172,9 +1171,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>94</v>
@@ -1213,9 +1212,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>32</v>
@@ -1254,9 +1253,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -1295,9 +1294,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -1336,9 +1335,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>21</v>
@@ -1377,9 +1376,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2">
         <v>14</v>
@@ -1418,9 +1417,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>53</v>
@@ -1459,9 +1458,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2">
         <v>11</v>
@@ -1500,9 +1499,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1541,9 +1540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1582,9 +1581,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>58</v>
@@ -1623,9 +1622,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1664,9 +1663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1705,9 +1704,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1746,9 +1745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -1787,9 +1786,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>99</v>
@@ -1828,9 +1827,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1869,9 +1868,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2">
         <v>44</v>
@@ -1910,9 +1909,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2">
         <v>52</v>
@@ -1951,9 +1950,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>135</v>
@@ -1992,9 +1991,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2033,9 +2032,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -2074,9 +2073,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -2115,9 +2114,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
@@ -2156,9 +2155,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
@@ -2197,9 +2196,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
         <v>31</v>
@@ -2238,9 +2237,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2">
         <v>18</v>
@@ -2279,9 +2278,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>38</v>
@@ -2320,9 +2319,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4">
         <v>11</v>
@@ -2361,9 +2360,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>69</v>
@@ -2402,9 +2401,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -2443,9 +2442,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2">
         <v>24</v>
@@ -2484,9 +2483,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2">
         <v>17</v>
@@ -2525,9 +2524,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2">
         <v>34</v>
@@ -2566,9 +2565,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2">
         <v>27</v>
@@ -2607,9 +2606,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -2648,9 +2647,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2">
         <v>28</v>
@@ -2689,9 +2688,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2">
         <v>13</v>
@@ -2730,9 +2729,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="2">
         <v>29</v>
@@ -2771,9 +2770,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2">
         <v>5</v>
@@ -2812,9 +2811,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="2">
         <v>78</v>
@@ -2853,9 +2852,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2">
         <v>58</v>
@@ -2894,9 +2893,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -2935,9 +2934,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -2976,9 +2975,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -3017,9 +3016,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2">
         <v>139</v>
@@ -3058,9 +3057,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="2">
         <v>72</v>
@@ -3099,9 +3098,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="2">
         <v>7</v>
@@ -3140,9 +3139,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="2">
         <v>21</v>
@@ -3181,9 +3180,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2">
         <v>26</v>
@@ -3222,9 +3221,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>11</v>
@@ -3263,9 +3262,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -3304,9 +3303,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2">
         <v>195</v>
@@ -3345,9 +3344,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2">
         <v>16</v>
@@ -3386,9 +3385,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="2">
         <v>40</v>
@@ -3427,9 +3426,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="2">
         <v>58</v>
@@ -3468,9 +3467,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>37</v>
@@ -3509,9 +3508,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2">
         <v>34</v>
@@ -3550,9 +3549,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2">
         <v>15</v>
@@ -3591,9 +3590,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="2">
         <v>14</v>
@@ -3632,9 +3631,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="2">
         <v>20</v>
@@ -3673,9 +3672,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="2">
         <v>2</v>
@@ -3714,9 +3713,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
@@ -3755,9 +3754,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2">
         <v>7</v>
@@ -3796,9 +3795,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="2">
         <v>10</v>
@@ -3837,9 +3836,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
@@ -3879,7 +3878,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M78">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2011_dengue_extracted.xlsx
+++ b/2011_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDF4DD-5D30-1149-9516-AB7D32B2FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{70EDF4DD-5D30-1149-9516-AB7D32B2FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50691BA-8263-48AA-828F-56C75D07DC11}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="6820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,9 @@
     <t xml:space="preserve">  May</t>
   </si>
   <si>
-    <t xml:space="preserve">  June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  July</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aug</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sept</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Oct</t>
   </si>
   <si>
@@ -295,6 +286,15 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,9 +662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28"/>
     <col min="2" max="2" width="10"/>
@@ -679,9 +681,9 @@
     <col min="13" max="13" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -699,30 +701,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -761,9 +763,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -802,9 +804,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>690</v>
@@ -843,9 +845,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -884,9 +886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2">
         <v>49</v>
@@ -925,9 +927,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>49</v>
@@ -966,9 +968,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>11</v>
@@ -1007,9 +1009,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -1048,9 +1050,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>28</v>
@@ -1089,9 +1091,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2">
         <v>29</v>
@@ -1130,9 +1132,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2">
         <v>21</v>
@@ -1171,9 +1173,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>94</v>
@@ -1212,9 +1214,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>32</v>
@@ -1253,9 +1255,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -1294,9 +1296,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -1335,9 +1337,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>21</v>
@@ -1376,9 +1378,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2">
         <v>14</v>
@@ -1417,9 +1419,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>53</v>
@@ -1458,9 +1460,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2">
         <v>11</v>
@@ -1499,9 +1501,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1540,9 +1542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1581,9 +1583,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
         <v>58</v>
@@ -1622,9 +1624,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1663,9 +1665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1704,9 +1706,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1745,9 +1747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -1786,9 +1788,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>99</v>
@@ -1827,9 +1829,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1868,9 +1870,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2">
         <v>44</v>
@@ -1909,9 +1911,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2">
         <v>52</v>
@@ -1950,9 +1952,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>135</v>
@@ -1991,9 +1993,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2032,9 +2034,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -2073,9 +2075,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -2114,9 +2116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
@@ -2155,9 +2157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
@@ -2196,9 +2198,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>31</v>
@@ -2237,9 +2239,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2">
         <v>18</v>
@@ -2278,9 +2280,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>38</v>
@@ -2319,9 +2321,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>11</v>
@@ -2360,9 +2362,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
         <v>69</v>
@@ -2401,9 +2403,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -2442,9 +2444,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2">
         <v>24</v>
@@ -2483,9 +2485,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="2">
         <v>17</v>
@@ -2524,9 +2526,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2">
         <v>34</v>
@@ -2565,9 +2567,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2">
         <v>27</v>
@@ -2606,9 +2608,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -2647,9 +2649,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2">
         <v>28</v>
@@ -2688,9 +2690,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2">
         <v>13</v>
@@ -2729,9 +2731,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" s="2">
         <v>29</v>
@@ -2770,9 +2772,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2">
         <v>5</v>
@@ -2811,9 +2813,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2">
         <v>78</v>
@@ -2852,9 +2854,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2">
         <v>58</v>
@@ -2893,9 +2895,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -2934,9 +2936,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -2975,9 +2977,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -3016,9 +3018,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2">
         <v>139</v>
@@ -3057,9 +3059,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B59" s="2">
         <v>72</v>
@@ -3098,9 +3100,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2">
         <v>7</v>
@@ -3139,9 +3141,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2">
         <v>21</v>
@@ -3180,9 +3182,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2">
         <v>26</v>
@@ -3221,9 +3223,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>11</v>
@@ -3262,9 +3264,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -3303,9 +3305,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" s="2">
         <v>195</v>
@@ -3344,9 +3346,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2">
         <v>16</v>
@@ -3385,9 +3387,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B67" s="2">
         <v>40</v>
@@ -3426,9 +3428,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2">
         <v>58</v>
@@ -3467,9 +3469,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>37</v>
@@ -3508,9 +3510,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2">
         <v>34</v>
@@ -3549,9 +3551,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2">
         <v>15</v>
@@ -3590,9 +3592,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2">
         <v>14</v>
@@ -3631,9 +3633,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
         <v>20</v>
@@ -3672,9 +3674,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B74" s="2">
         <v>2</v>
@@ -3713,9 +3715,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
@@ -3754,9 +3756,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2">
         <v>7</v>
@@ -3795,9 +3797,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="2">
         <v>10</v>
@@ -3836,9 +3838,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>

--- a/2011_dengue_extracted.xlsx
+++ b/2011_dengue_extracted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{70EDF4DD-5D30-1149-9516-AB7D32B2FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50691BA-8263-48AA-828F-56C75D07DC11}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{70EDF4DD-5D30-1149-9516-AB7D32B2FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CBAABA1-89E4-4F5C-9BB9-514BA0FDB142}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Sakon Nakhon</t>
   </si>
   <si>
-    <t>Kalisin</t>
-  </si>
-  <si>
     <t>Khon Kaen</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Sep</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
   </si>
 </sst>
 </file>
@@ -395,6 +395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -701,16 +705,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
@@ -724,7 +728,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -888,7 +892,7 @@
     </row>
     <row r="6" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2">
         <v>49</v>
@@ -1011,7 +1015,7 @@
     </row>
     <row r="9" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -1093,7 +1097,7 @@
     </row>
     <row r="11" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>29</v>
@@ -1134,7 +1138,7 @@
     </row>
     <row r="12" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2">
         <v>21</v>
@@ -1257,7 +1261,7 @@
     </row>
     <row r="15" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -1298,7 +1302,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -1380,7 +1384,7 @@
     </row>
     <row r="18" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>14</v>
@@ -1462,7 +1466,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2">
         <v>11</v>
@@ -1503,7 +1507,7 @@
     </row>
     <row r="21" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -1626,7 +1630,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1667,7 +1671,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>9</v>
@@ -1872,7 +1876,7 @@
     </row>
     <row r="30" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2">
         <v>44</v>
@@ -1913,7 +1917,7 @@
     </row>
     <row r="31" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2">
         <v>52</v>
@@ -1995,7 +1999,7 @@
     </row>
     <row r="33" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2405,7 +2409,7 @@
     </row>
     <row r="43" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
@@ -2446,7 +2450,7 @@
     </row>
     <row r="44" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2">
         <v>24</v>
@@ -2528,7 +2532,7 @@
     </row>
     <row r="46" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2">
         <v>34</v>
@@ -2569,7 +2573,7 @@
     </row>
     <row r="47" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2">
         <v>27</v>
@@ -2610,7 +2614,7 @@
     </row>
     <row r="48" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -2897,7 +2901,7 @@
     </row>
     <row r="55" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -3225,7 +3229,7 @@
     </row>
     <row r="63" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>11</v>
@@ -3348,7 +3352,7 @@
     </row>
     <row r="66" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>16</v>
@@ -3471,7 +3475,7 @@
     </row>
     <row r="69" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>37</v>
@@ -3512,7 +3516,7 @@
     </row>
     <row r="70" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
         <v>34</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="73" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
         <v>20</v>
@@ -3717,7 +3721,7 @@
     </row>
     <row r="75" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="76" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
         <v>7</v>
@@ -3840,7 +3844,7 @@
     </row>
     <row r="78" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="4">
         <v>1</v>
